--- a/Team-Data/2007-08/4-10-2007-08.xlsx
+++ b/Team-Data/2007-08/4-10-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>-1.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AE2" t="n">
         <v>18</v>
@@ -774,7 +841,7 @@
         <v>28</v>
       </c>
       <c r="AN2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO2" t="n">
         <v>5</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-10-2007-08</t>
+          <t>2008-04-10</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>10.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -956,7 +1023,7 @@
         <v>12</v>
       </c>
       <c r="AN3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO3" t="n">
         <v>8</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-10-2007-08</t>
+          <t>2008-04-10</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1187,7 @@
         <v>23</v>
       </c>
       <c r="AH4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI4" t="n">
         <v>25</v>
@@ -1150,7 +1217,7 @@
         <v>30</v>
       </c>
       <c r="AR4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS4" t="n">
         <v>23</v>
@@ -1162,13 +1229,13 @@
         <v>16</v>
       </c>
       <c r="AV4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW4" t="n">
         <v>12</v>
       </c>
       <c r="AX4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY4" t="n">
         <v>30</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-10-2007-08</t>
+          <t>2008-04-10</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-3.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AE5" t="n">
         <v>22</v>
@@ -1338,7 +1405,7 @@
         <v>18</v>
       </c>
       <c r="AT5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU5" t="n">
         <v>12</v>
@@ -1359,7 +1426,7 @@
         <v>22</v>
       </c>
       <c r="BA5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB5" t="n">
         <v>21</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-10-2007-08</t>
+          <t>2008-04-10</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-0.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-10-2007-08</t>
+          <t>2008-04-10</t>
         </is>
       </c>
     </row>
@@ -1576,25 +1643,25 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E7" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" t="n">
         <v>29</v>
       </c>
       <c r="G7" t="n">
-        <v>0.633</v>
+        <v>0.628</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
       </c>
       <c r="I7" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="J7" t="n">
-        <v>79.2</v>
+        <v>79.3</v>
       </c>
       <c r="K7" t="n">
         <v>0.465</v>
@@ -1606,31 +1673,31 @@
         <v>16.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.352</v>
+        <v>0.35</v>
       </c>
       <c r="O7" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="P7" t="n">
         <v>25.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="R7" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S7" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="T7" t="n">
-        <v>43.1</v>
+        <v>43.2</v>
       </c>
       <c r="U7" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="V7" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="W7" t="n">
         <v>6.1</v>
@@ -1642,7 +1709,7 @@
         <v>4.3</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AA7" t="n">
         <v>21.2</v>
@@ -1651,10 +1718,10 @@
         <v>100.3</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE7" t="n">
         <v>9</v>
@@ -1666,7 +1733,7 @@
         <v>9</v>
       </c>
       <c r="AH7" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AI7" t="n">
         <v>15</v>
@@ -1702,7 +1769,7 @@
         <v>7</v>
       </c>
       <c r="AT7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AU7" t="n">
         <v>20</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-10-2007-08</t>
+          <t>2008-04-10</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" t="n">
         <v>31</v>
       </c>
       <c r="G8" t="n">
-        <v>0.608</v>
+        <v>0.603</v>
       </c>
       <c r="H8" t="n">
         <v>48.4</v>
@@ -1779,7 +1846,7 @@
         <v>85.90000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.47</v>
+        <v>0.469</v>
       </c>
       <c r="L8" t="n">
         <v>7</v>
@@ -1788,10 +1855,10 @@
         <v>19.6</v>
       </c>
       <c r="N8" t="n">
-        <v>0.357</v>
+        <v>0.356</v>
       </c>
       <c r="O8" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="P8" t="n">
         <v>30.6</v>
@@ -1800,10 +1867,10 @@
         <v>0.753</v>
       </c>
       <c r="R8" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="S8" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="T8" t="n">
         <v>44.1</v>
@@ -1815,16 +1882,16 @@
         <v>14.7</v>
       </c>
       <c r="W8" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X8" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="Y8" t="n">
         <v>4.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA8" t="n">
         <v>23.7</v>
@@ -1833,10 +1900,10 @@
         <v>110.7</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE8" t="n">
         <v>11</v>
@@ -1848,7 +1915,7 @@
         <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AI8" t="n">
         <v>3</v>
@@ -1863,10 +1930,10 @@
         <v>12</v>
       </c>
       <c r="AM8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1875,16 +1942,16 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU8" t="n">
         <v>3</v>
@@ -1899,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="AY8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ8" t="n">
         <v>17</v>
@@ -1908,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="BB8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC8" t="n">
         <v>11</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-10-2007-08</t>
+          <t>2008-04-10</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>7</v>
       </c>
       <c r="AD9" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-10-2007-08</t>
+          <t>2008-04-10</t>
         </is>
       </c>
     </row>
@@ -2122,28 +2189,28 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" t="n">
         <v>47</v>
       </c>
       <c r="F10" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" t="n">
-        <v>0.595</v>
+        <v>0.603</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="J10" t="n">
-        <v>89.90000000000001</v>
+        <v>89.8</v>
       </c>
       <c r="K10" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L10" t="n">
         <v>9.199999999999999</v>
@@ -2152,7 +2219,7 @@
         <v>26.5</v>
       </c>
       <c r="N10" t="n">
-        <v>0.348</v>
+        <v>0.349</v>
       </c>
       <c r="O10" t="n">
         <v>18.8</v>
@@ -2161,16 +2228,16 @@
         <v>25</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.752</v>
+        <v>0.754</v>
       </c>
       <c r="R10" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="S10" t="n">
         <v>30.4</v>
       </c>
       <c r="T10" t="n">
-        <v>43.1</v>
+        <v>43</v>
       </c>
       <c r="U10" t="n">
         <v>22.3</v>
@@ -2185,7 +2252,7 @@
         <v>4.6</v>
       </c>
       <c r="Y10" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z10" t="n">
         <v>22.8</v>
@@ -2194,25 +2261,25 @@
         <v>21.3</v>
       </c>
       <c r="AB10" t="n">
-        <v>110.7</v>
+        <v>110.8</v>
       </c>
       <c r="AC10" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2230,7 +2297,7 @@
         <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO10" t="n">
         <v>13</v>
@@ -2239,16 +2306,16 @@
         <v>15</v>
       </c>
       <c r="AQ10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR10" t="n">
         <v>5</v>
       </c>
       <c r="AS10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU10" t="n">
         <v>10</v>
@@ -2269,7 +2336,7 @@
         <v>27</v>
       </c>
       <c r="BA10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB10" t="n">
         <v>1</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-10-2007-08</t>
+          <t>2008-04-10</t>
         </is>
       </c>
     </row>
@@ -2382,16 +2449,16 @@
         <v>4.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF11" t="n">
         <v>4</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH11" t="n">
         <v>25</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-10-2007-08</t>
+          <t>2008-04-10</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-1.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AE12" t="n">
         <v>20</v>
@@ -2627,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="AY12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
         <v>29</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-10-2007-08</t>
+          <t>2008-04-10</t>
         </is>
       </c>
     </row>
@@ -2668,28 +2735,28 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E13" t="n">
         <v>23</v>
       </c>
       <c r="F13" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G13" t="n">
-        <v>0.291</v>
+        <v>0.295</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
       </c>
       <c r="I13" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="J13" t="n">
         <v>78.59999999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L13" t="n">
         <v>4.2</v>
@@ -2698,28 +2765,28 @@
         <v>13.1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.323</v>
+        <v>0.324</v>
       </c>
       <c r="O13" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="P13" t="n">
         <v>26.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.78</v>
+        <v>0.783</v>
       </c>
       <c r="R13" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S13" t="n">
         <v>30.2</v>
       </c>
       <c r="T13" t="n">
-        <v>40</v>
+        <v>39.9</v>
       </c>
       <c r="U13" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V13" t="n">
         <v>14.4</v>
@@ -2728,10 +2795,10 @@
         <v>6.9</v>
       </c>
       <c r="X13" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z13" t="n">
         <v>21.4</v>
@@ -2740,13 +2807,13 @@
         <v>21.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>93.8</v>
+        <v>94</v>
       </c>
       <c r="AC13" t="n">
-        <v>-7</v>
+        <v>-6.7</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2758,13 +2825,13 @@
         <v>25</v>
       </c>
       <c r="AH13" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK13" t="n">
         <v>29</v>
@@ -2806,13 +2873,13 @@
         <v>19</v>
       </c>
       <c r="AX13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY13" t="n">
         <v>15</v>
       </c>
       <c r="AZ13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-10-2007-08</t>
+          <t>2008-04-10</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E14" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F14" t="n">
         <v>25</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.679</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
@@ -2877,34 +2944,34 @@
         <v>8</v>
       </c>
       <c r="M14" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="N14" t="n">
         <v>0.378</v>
       </c>
       <c r="O14" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="P14" t="n">
         <v>27.7</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.766</v>
+        <v>0.768</v>
       </c>
       <c r="R14" t="n">
         <v>10.9</v>
       </c>
       <c r="S14" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="T14" t="n">
-        <v>44</v>
+        <v>44.1</v>
       </c>
       <c r="U14" t="n">
         <v>24.3</v>
       </c>
       <c r="V14" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W14" t="n">
         <v>8</v>
@@ -2922,13 +2989,13 @@
         <v>22.6</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.4</v>
+        <v>108.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE14" t="n">
         <v>4</v>
@@ -2940,7 +3007,7 @@
         <v>4</v>
       </c>
       <c r="AH14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI14" t="n">
         <v>5</v>
@@ -2958,7 +3025,7 @@
         <v>6</v>
       </c>
       <c r="AN14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
@@ -2967,7 +3034,7 @@
         <v>5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR14" t="n">
         <v>19</v>
@@ -2976,7 +3043,7 @@
         <v>1</v>
       </c>
       <c r="AT14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU14" t="n">
         <v>4</v>
@@ -2991,7 +3058,7 @@
         <v>5</v>
       </c>
       <c r="AY14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ14" t="n">
         <v>14</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-10-2007-08</t>
+          <t>2008-04-10</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-10-2007-08</t>
+          <t>2008-04-10</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-8.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3346,7 +3413,7 @@
         <v>25</v>
       </c>
       <c r="AV16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW16" t="n">
         <v>16</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-10-2007-08</t>
+          <t>2008-04-10</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-6.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AE17" t="n">
         <v>24</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-10-2007-08</t>
+          <t>2008-04-10</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-7.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AE18" t="n">
         <v>28</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-10-2007-08</t>
+          <t>2008-04-10</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-5</v>
       </c>
       <c r="AD19" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AE19" t="n">
         <v>21</v>
@@ -3868,7 +3935,7 @@
         <v>18</v>
       </c>
       <c r="AN19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO19" t="n">
         <v>10</v>
@@ -3880,7 +3947,7 @@
         <v>22</v>
       </c>
       <c r="AR19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS19" t="n">
         <v>13</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-10-2007-08</t>
+          <t>2008-04-10</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>5.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AE20" t="n">
         <v>2</v>
@@ -4059,13 +4126,13 @@
         <v>28</v>
       </c>
       <c r="AQ20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT20" t="n">
         <v>15</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-10-2007-08</t>
+          <t>2008-04-10</t>
         </is>
       </c>
     </row>
@@ -4208,10 +4275,10 @@
         <v>25</v>
       </c>
       <c r="AF21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH21" t="n">
         <v>3</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-10-2007-08</t>
+          <t>2008-04-10</t>
         </is>
       </c>
     </row>
@@ -4384,16 +4451,16 @@
         <v>5</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AE22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF22" t="n">
         <v>9</v>
       </c>
       <c r="AG22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH22" t="n">
         <v>18</v>
@@ -4402,7 +4469,7 @@
         <v>13</v>
       </c>
       <c r="AJ22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK22" t="n">
         <v>5</v>
@@ -4420,7 +4487,7 @@
         <v>9</v>
       </c>
       <c r="AP22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ22" t="n">
         <v>27</v>
@@ -4429,7 +4496,7 @@
         <v>28</v>
       </c>
       <c r="AS22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT22" t="n">
         <v>13</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-10-2007-08</t>
+          <t>2008-04-10</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>0.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AE23" t="n">
         <v>15</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-10-2007-08</t>
+          <t>2008-04-10</t>
         </is>
       </c>
     </row>
@@ -4751,7 +4818,7 @@
         <v>1</v>
       </c>
       <c r="AE24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF24" t="n">
         <v>7</v>
@@ -4760,7 +4827,7 @@
         <v>7</v>
       </c>
       <c r="AH24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
         <v>1</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-10-2007-08</t>
+          <t>2008-04-10</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-1</v>
       </c>
       <c r="AD25" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AE25" t="n">
         <v>16</v>
@@ -4960,7 +5027,7 @@
         <v>17</v>
       </c>
       <c r="AN25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO25" t="n">
         <v>24</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-10-2007-08</t>
+          <t>2008-04-10</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-2.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
@@ -5148,7 +5215,7 @@
         <v>2</v>
       </c>
       <c r="AP26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ26" t="n">
         <v>3</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-10-2007-08</t>
+          <t>2008-04-10</t>
         </is>
       </c>
     </row>
@@ -5294,16 +5361,16 @@
         <v>4.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AE27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF27" t="n">
         <v>4</v>
       </c>
       <c r="AG27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH27" t="n">
         <v>25</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-10-2007-08</t>
+          <t>2008-04-10</t>
         </is>
       </c>
     </row>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-10-2007-08</t>
+          <t>2008-04-10</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>2.7</v>
       </c>
       <c r="AD29" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AE29" t="n">
         <v>16</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-10-2007-08</t>
+          <t>2008-04-10</t>
         </is>
       </c>
     </row>
@@ -5762,22 +5829,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E30" t="n">
         <v>52</v>
       </c>
       <c r="F30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G30" t="n">
-        <v>0.658</v>
+        <v>0.667</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
       </c>
       <c r="I30" t="n">
-        <v>40</v>
+        <v>40.1</v>
       </c>
       <c r="J30" t="n">
         <v>80.3</v>
@@ -5789,19 +5856,19 @@
         <v>5</v>
       </c>
       <c r="M30" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="N30" t="n">
-        <v>0.379</v>
+        <v>0.377</v>
       </c>
       <c r="O30" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="P30" t="n">
-        <v>28.1</v>
+        <v>28.2</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.759</v>
+        <v>0.758</v>
       </c>
       <c r="R30" t="n">
         <v>11.5</v>
@@ -5813,46 +5880,46 @@
         <v>40.8</v>
       </c>
       <c r="U30" t="n">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="V30" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W30" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="X30" t="n">
         <v>4.3</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z30" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="AB30" t="n">
-        <v>106.3</v>
+        <v>106.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE30" t="n">
         <v>8</v>
       </c>
       <c r="AF30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG30" t="n">
         <v>8</v>
       </c>
       <c r="AH30" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI30" t="n">
         <v>4</v>
@@ -5870,19 +5937,19 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AQ30" t="n">
         <v>16</v>
       </c>
       <c r="AR30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS30" t="n">
         <v>26</v>
@@ -5894,7 +5961,7 @@
         <v>2</v>
       </c>
       <c r="AV30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW30" t="n">
         <v>3</v>
@@ -5903,7 +5970,7 @@
         <v>23</v>
       </c>
       <c r="AY30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ30" t="n">
         <v>30</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-10-2007-08</t>
+          <t>2008-04-10</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6067,7 +6134,7 @@
         <v>9</v>
       </c>
       <c r="AS31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT31" t="n">
         <v>20</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-10-2007-08</t>
+          <t>2008-04-10</t>
         </is>
       </c>
     </row>
